--- a/resources/questions.xlsx
+++ b/resources/questions.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqi/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hansui\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04AB7B8A-E694-CD4F-92F5-35404E0D73D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="15020" xr2:uid="{6FABC319-C1FF-A14A-A9B9-00F7FD2B087E}"/>
+    <workbookView xWindow="315" yWindow="465" windowWidth="24945" windowHeight="15015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,20 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>狐假虎威</t>
   </si>
   <si>
     <t>鸠占鹊巢</t>
-  </si>
-  <si>
-    <t>${}的意思是狐狸借老虎之威吓退百兽。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁世凯失败，在于动了${}之念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狐假虎威</t>
@@ -66,88 +56,6 @@
   </si>
   <si>
     <r>
-      <t>${}的意思是强占别人的住屋或占据别人的位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF333333"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>置。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>他只是董事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF333333"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>边</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF333333"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>的司机，却常${}地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF333333"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>号施令</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>鸠</t>
     </r>
     <r>
@@ -209,12 +117,122 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否正确答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(  )的意思是强占别人的住屋或占据别人的位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>置。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>他只是董事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的司机，却常(  )地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号施令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(  )的意思是狐狸借老虎之威吓退百兽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁世凯失败，在于动了(  )之念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,22 +297,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -613,179 +631,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC121D8-1C6A-E14D-B288-7C7E1B42CEE5}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="73.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>

--- a/resources/questions.xlsx
+++ b/resources/questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>狐假虎威</t>
   </si>
@@ -88,13 +88,6 @@
       </rPr>
       <t>巢</t>
     </r>
-  </si>
-  <si>
-    <t>答案</t>
-    <rPh sb="0" eb="2">
-      <t>da'a</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选项序号</t>
@@ -293,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,9 +300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -632,27 +622,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="73.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="73.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -661,173 +651,150 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="12">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
